--- a/dumps/Stocks/Aurum Proptech Ltd.xlsx
+++ b/dumps/Stocks/Aurum Proptech Ltd.xlsx
@@ -29611,7 +29611,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1008"/>
+  <dimension ref="A1:AP1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -29963,7 +29963,7 @@
     </row>
     <row r="5">
       <c r="A5" s="94" t="n">
-        <v>46056</v>
+        <v>46027</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -29976,18 +29976,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>194</v>
+        <v>184.08</v>
       </c>
       <c r="F5" t="n">
-        <v>1940</v>
+        <v>3681.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252610159828</t>
         </is>
+      </c>
+      <c r="I5" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="6">
@@ -30020,118 +30023,37 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="58" t="n">
-        <v>45705</v>
-      </c>
-      <c r="B7" s="59" t="inlineStr">
+      <c r="A7" s="94" t="n">
+        <v>46056</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C7" s="59" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D7" s="60" t="n">
+      <c r="D7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="61" t="n">
-        <v>174.11</v>
-      </c>
-      <c r="F7" s="61" t="n">
-        <v>1741.08</v>
-      </c>
-      <c r="G7" s="59" t="inlineStr">
+      <c r="E7" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H7" s="60" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I7" s="60" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="J7" s="62">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K7" s="63">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L7" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M7" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N7" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="63">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P7" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R7" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S7" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T7" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U7" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V7" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W7" s="67" t="n">
-        <v>194</v>
-      </c>
-      <c r="X7" s="95" t="n">
-        <v>46056</v>
-      </c>
-      <c r="Y7" s="66" t="n">
-        <v>0.11186</v>
-      </c>
-      <c r="Z7" s="67" t="n">
-        <v>196.12</v>
-      </c>
-      <c r="AA7" s="67" t="n">
-        <v>1937.22</v>
-      </c>
-      <c r="AB7" s="68" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="64">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD7" s="69" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="58" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B8" s="59" t="inlineStr">
         <is>
@@ -30147,10 +30069,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="61" t="n">
-        <v>193.03</v>
+        <v>174.11</v>
       </c>
       <c r="F8" s="61" t="n">
-        <v>1930.31</v>
+        <v>1741.08</v>
       </c>
       <c r="G8" s="59" t="inlineStr">
         <is>
@@ -30158,61 +30080,61 @@
         </is>
       </c>
       <c r="H8" s="60" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="I8" s="60" t="n">
-        <v>11.69</v>
+        <v>10.45</v>
       </c>
       <c r="J8" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K8" s="63">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L8" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M8" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N8" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O8" s="63">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P8" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q8" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R8" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S8" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T8" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U8" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V8" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W8" s="67" t="n">
@@ -30222,26 +30144,26 @@
         <v>46056</v>
       </c>
       <c r="Y8" s="66" t="n">
-        <v>0.004918</v>
+        <v>0.11186</v>
       </c>
       <c r="Z8" s="67" t="n">
-        <v>9.56</v>
+        <v>196.12</v>
       </c>
       <c r="AA8" s="67" t="n">
-        <v>1939.86</v>
+        <v>1937.22</v>
       </c>
       <c r="AB8" s="68" t="n">
         <v>10</v>
       </c>
       <c r="AC8" s="64">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD8" s="69" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="58" t="n">
-        <v>45309</v>
+        <v>45694</v>
       </c>
       <c r="B9" s="59" t="inlineStr">
         <is>
@@ -30250,17 +30172,17 @@
       </c>
       <c r="C9" s="59" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D9" s="60" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E9" s="61" t="n">
-        <v>176.26</v>
+        <v>193.03</v>
       </c>
       <c r="F9" s="61" t="n">
-        <v>15863.81</v>
+        <v>1930.31</v>
       </c>
       <c r="G9" s="59" t="inlineStr">
         <is>
@@ -30268,81 +30190,90 @@
         </is>
       </c>
       <c r="H9" s="60" t="n">
-        <v>16</v>
+        <v>1.92</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>95.18000000000001</v>
+        <v>11.69</v>
       </c>
       <c r="J9" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K9" s="63">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L9" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M9" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N9" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O9" s="63">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P9" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q9" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R9" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S9" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T9" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U9" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V9" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
-      <c r="W9" s="67" t="n"/>
-      <c r="X9" s="67" t="n"/>
-      <c r="Y9" s="66">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="67" t="n"/>
-      <c r="AA9" s="67" t="n"/>
-      <c r="AB9" s="68" t="n"/>
+      <c r="W9" s="67" t="n">
+        <v>194</v>
+      </c>
+      <c r="X9" s="95" t="n">
+        <v>46056</v>
+      </c>
+      <c r="Y9" s="66" t="n">
+        <v>0.004918</v>
+      </c>
+      <c r="Z9" s="67" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="AA9" s="67" t="n">
+        <v>1939.86</v>
+      </c>
+      <c r="AB9" s="68" t="n">
+        <v>10</v>
+      </c>
       <c r="AC9" s="64">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD9" s="69" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="58" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
       <c r="B10" s="59" t="inlineStr">
         <is>
@@ -30355,13 +30286,13 @@
         </is>
       </c>
       <c r="D10" s="60" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10" s="61" t="n">
-        <v>161.37</v>
+        <v>176.26</v>
       </c>
       <c r="F10" s="61" t="n">
-        <v>16137.41</v>
+        <v>15863.81</v>
       </c>
       <c r="G10" s="59" t="inlineStr">
         <is>
@@ -30369,186 +30300,182 @@
         </is>
       </c>
       <c r="H10" s="60" t="n">
-        <v>16.31</v>
+        <v>16</v>
       </c>
       <c r="I10" s="60" t="n">
-        <v>96.28</v>
+        <v>95.18000000000001</v>
       </c>
       <c r="J10" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K10" s="63">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L10" s="64">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M10" s="64">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N10" s="65">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O10" s="63">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P10" s="64">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q10" s="64">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R10" s="64">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S10" s="66">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T10" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U10" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V10" s="67">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W10" s="67" t="n"/>
       <c r="X10" s="67" t="n"/>
       <c r="Y10" s="66">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z10" s="67" t="n"/>
       <c r="AA10" s="67" t="n"/>
       <c r="AB10" s="68" t="n"/>
       <c r="AC10" s="64">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD10" s="69" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="70" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B11" s="71" t="inlineStr">
+      <c r="A11" s="58" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B11" s="59" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C11" s="71" t="inlineStr">
+      <c r="C11" s="59" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D11" s="72" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="62" t="n">
-        <v>123.1995</v>
-      </c>
-      <c r="F11" s="62" t="n">
-        <v>2481.61</v>
-      </c>
-      <c r="G11" s="72" t="inlineStr">
+      <c r="D11" s="60" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="61" t="n">
+        <v>161.37</v>
+      </c>
+      <c r="F11" s="61" t="n">
+        <v>16137.41</v>
+      </c>
+      <c r="G11" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H11" s="72" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I11" s="72" t="n">
-        <v>15.13</v>
+      <c r="H11" s="60" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="I11" s="60" t="n">
+        <v>96.28</v>
       </c>
       <c r="J11" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K11" s="62" t="n"/>
-      <c r="L11" s="62">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (J9*D9)-(E9*D9), "")</f>
+      <c r="K11" s="63">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="M11" s="73">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), J9*D9, "")</f>
+      <c r="L11" s="64">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="N11" s="74">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+      <c r="M11" s="64">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
-      <c r="O11" s="62" t="n"/>
-      <c r="P11" s="62">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (J9*D9)-(E9*D9), "")</f>
+      <c r="N11" s="65">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
-      <c r="Q11" s="75">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), J9*D9, "")</f>
+      <c r="O11" s="63">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="R11" s="75">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+      <c r="P11" s="64">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="S11" s="76" t="n"/>
-      <c r="T11" s="76">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (J9*D9)-(E9*D9), "")</f>
+      <c r="Q11" s="64">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
-      <c r="U11" s="76">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), J9*D9, "")</f>
+      <c r="R11" s="64">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="V11" s="76">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+      <c r="S11" s="66">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="W11" s="61" t="n">
-        <v>176.26</v>
-      </c>
-      <c r="X11" s="58" t="n">
-        <v>45309</v>
-      </c>
-      <c r="Y11" s="66" t="n">
-        <v>0.4186718496</v>
-      </c>
-      <c r="Z11" s="77" t="n">
-        <v>1046.35306</v>
-      </c>
-      <c r="AA11" s="77" t="n">
-        <v>3510.34306</v>
-      </c>
-      <c r="AB11" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC11" s="62">
-        <f>if(B9="DIV", F9,"")</f>
+      <c r="T11" s="67">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="AD11" s="79" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="U11" s="67">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V11" s="67">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W11" s="67" t="n"/>
+      <c r="X11" s="67" t="n"/>
+      <c r="Y11" s="66">
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="Z11" s="67" t="n"/>
+      <c r="AA11" s="67" t="n"/>
+      <c r="AB11" s="68" t="n"/>
+      <c r="AC11" s="64">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD11" s="69" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="70" t="n">
-        <v>45184</v>
+        <v>45225</v>
       </c>
       <c r="B12" s="71" t="inlineStr">
         <is>
@@ -30561,13 +30488,13 @@
         </is>
       </c>
       <c r="D12" s="72" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="62" t="n">
-        <v>129.397</v>
+        <v>123.1995</v>
       </c>
       <c r="F12" s="62" t="n">
-        <v>1303.23</v>
+        <v>2481.61</v>
       </c>
       <c r="G12" s="72" t="inlineStr">
         <is>
@@ -30575,10 +30502,10 @@
         </is>
       </c>
       <c r="H12" s="72" t="n">
-        <v>1.3</v>
+        <v>2.48</v>
       </c>
       <c r="I12" s="72" t="n">
-        <v>7.93</v>
+        <v>15.13</v>
       </c>
       <c r="J12" s="62">
         <f>Index!$C$2</f>
@@ -30586,41 +30513,41 @@
       </c>
       <c r="K12" s="62" t="n"/>
       <c r="L12" s="62">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (J10*D10)-(E10*D10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (J9*D9)-(E9*D9), "")</f>
         <v/>
       </c>
       <c r="M12" s="73">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), J10*D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), J9*D9, "")</f>
         <v/>
       </c>
       <c r="N12" s="74">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O12" s="62" t="n"/>
       <c r="P12" s="62">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (J10*D10)-(E10*D10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (J9*D9)-(E9*D9), "")</f>
         <v/>
       </c>
       <c r="Q12" s="75">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), J10*D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), J9*D9, "")</f>
         <v/>
       </c>
       <c r="R12" s="75">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S12" s="76" t="n"/>
       <c r="T12" s="76">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (J10*D10)-(E10*D10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (J9*D9)-(E9*D9), "")</f>
         <v/>
       </c>
       <c r="U12" s="76">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), J10*D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), J9*D9, "")</f>
         <v/>
       </c>
       <c r="V12" s="76">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W12" s="61" t="n">
@@ -30630,19 +30557,19 @@
         <v>45309</v>
       </c>
       <c r="Y12" s="66" t="n">
-        <v>0.3520634381</v>
+        <v>0.4186718496</v>
       </c>
       <c r="Z12" s="77" t="n">
-        <v>462.06918</v>
+        <v>1046.35306</v>
       </c>
       <c r="AA12" s="77" t="n">
-        <v>1756.03918</v>
+        <v>3510.34306</v>
       </c>
       <c r="AB12" s="78" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC12" s="62">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD12" s="79" t="inlineStr">
@@ -30653,7 +30580,7 @@
     </row>
     <row r="13">
       <c r="A13" s="70" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B13" s="71" t="inlineStr">
         <is>
@@ -30666,13 +30593,13 @@
         </is>
       </c>
       <c r="D13" s="72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="62" t="n">
-        <v>128.204444</v>
+        <v>129.397</v>
       </c>
       <c r="F13" s="62" t="n">
-        <v>1161.95</v>
+        <v>1303.23</v>
       </c>
       <c r="G13" s="72" t="inlineStr">
         <is>
@@ -30680,10 +30607,10 @@
         </is>
       </c>
       <c r="H13" s="72" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="I13" s="72" t="n">
-        <v>7</v>
+        <v>7.93</v>
       </c>
       <c r="J13" s="62">
         <f>Index!$C$2</f>
@@ -30691,41 +30618,41 @@
       </c>
       <c r="K13" s="62" t="n"/>
       <c r="L13" s="62">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (J11*D11)-(E11*D11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (J10*D10)-(E10*D10), "")</f>
         <v/>
       </c>
       <c r="M13" s="73">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), J11*D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), J10*D10, "")</f>
         <v/>
       </c>
       <c r="N13" s="74">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O13" s="62" t="n"/>
       <c r="P13" s="62">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (J11*D11)-(E11*D11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (J10*D10)-(E10*D10), "")</f>
         <v/>
       </c>
       <c r="Q13" s="75">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), J11*D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), J10*D10, "")</f>
         <v/>
       </c>
       <c r="R13" s="75">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S13" s="76" t="n"/>
       <c r="T13" s="76">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (J11*D11)-(E11*D11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (J10*D10)-(E10*D10), "")</f>
         <v/>
       </c>
       <c r="U13" s="76">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), J11*D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), J10*D10, "")</f>
         <v/>
       </c>
       <c r="V13" s="76">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W13" s="61" t="n">
@@ -30735,19 +30662,19 @@
         <v>45309</v>
       </c>
       <c r="Y13" s="66" t="n">
-        <v>0.3644517596</v>
+        <v>0.3520634381</v>
       </c>
       <c r="Z13" s="77" t="n">
-        <v>426.4450039</v>
+        <v>462.06918</v>
       </c>
       <c r="AA13" s="77" t="n">
-        <v>1580.285</v>
+        <v>1756.03918</v>
       </c>
       <c r="AB13" s="78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="62">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD13" s="79" t="inlineStr">
@@ -30771,13 +30698,13 @@
         </is>
       </c>
       <c r="D14" s="72" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" s="62" t="n">
-        <v>128.2</v>
+        <v>128.204444</v>
       </c>
       <c r="F14" s="62" t="n">
-        <v>129.11</v>
+        <v>1161.95</v>
       </c>
       <c r="G14" s="72" t="inlineStr">
         <is>
@@ -30785,10 +30712,10 @@
         </is>
       </c>
       <c r="H14" s="72" t="n">
-        <v>0.13</v>
+        <v>1.15</v>
       </c>
       <c r="I14" s="72" t="n">
-        <v>0.78</v>
+        <v>7</v>
       </c>
       <c r="J14" s="62">
         <f>Index!$C$2</f>
@@ -30796,41 +30723,41 @@
       </c>
       <c r="K14" s="62" t="n"/>
       <c r="L14" s="62">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (J12*D12)-(E12*D12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (J11*D11)-(E11*D11), "")</f>
         <v/>
       </c>
       <c r="M14" s="73">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), J11*D11, "")</f>
         <v/>
       </c>
       <c r="N14" s="74">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O14" s="62" t="n"/>
       <c r="P14" s="62">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (J12*D12)-(E12*D12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (J11*D11)-(E11*D11), "")</f>
         <v/>
       </c>
       <c r="Q14" s="75">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), J12*D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), J11*D11, "")</f>
         <v/>
       </c>
       <c r="R14" s="75">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S14" s="76" t="n"/>
       <c r="T14" s="76">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (J11*D11)-(E11*D11), "")</f>
         <v/>
       </c>
       <c r="U14" s="76">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), J12*D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), J11*D11, "")</f>
         <v/>
       </c>
       <c r="V14" s="76">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W14" s="61" t="n">
@@ -30840,19 +30767,19 @@
         <v>45309</v>
       </c>
       <c r="Y14" s="66" t="n">
-        <v>0.3644605445</v>
+        <v>0.3644517596</v>
       </c>
       <c r="Z14" s="77" t="n">
-        <v>47.38716</v>
+        <v>426.4450039</v>
       </c>
       <c r="AA14" s="77" t="n">
-        <v>175.58716</v>
+        <v>1580.285</v>
       </c>
       <c r="AB14" s="78" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC14" s="62">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD14" s="79" t="inlineStr">
@@ -30863,7 +30790,7 @@
     </row>
     <row r="15">
       <c r="A15" s="70" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B15" s="71" t="inlineStr">
         <is>
@@ -30876,13 +30803,13 @@
         </is>
       </c>
       <c r="D15" s="72" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="62" t="n">
-        <v>127.045</v>
+        <v>128.2</v>
       </c>
       <c r="F15" s="62" t="n">
-        <v>1279.55</v>
+        <v>129.11</v>
       </c>
       <c r="G15" s="72" t="inlineStr">
         <is>
@@ -30890,10 +30817,10 @@
         </is>
       </c>
       <c r="H15" s="72" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="I15" s="72" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="J15" s="62">
         <f>Index!$C$2</f>
@@ -30901,41 +30828,41 @@
       </c>
       <c r="K15" s="62" t="n"/>
       <c r="L15" s="62">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (J13*D13)-(E13*D13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (J12*D12)-(E12*D12), "")</f>
         <v/>
       </c>
       <c r="M15" s="73">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
         <v/>
       </c>
       <c r="N15" s="74">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O15" s="62" t="n"/>
       <c r="P15" s="62">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (J13*D13)-(E13*D13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (J12*D12)-(E12*D12), "")</f>
         <v/>
       </c>
       <c r="Q15" s="75">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), J13*D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), J12*D12, "")</f>
         <v/>
       </c>
       <c r="R15" s="75">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S15" s="76" t="n"/>
       <c r="T15" s="76">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (J13*D13)-(E13*D13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12), "")</f>
         <v/>
       </c>
       <c r="U15" s="76">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), J13*D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), J12*D12, "")</f>
         <v/>
       </c>
       <c r="V15" s="76">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W15" s="61" t="n">
@@ -30945,19 +30872,19 @@
         <v>45309</v>
       </c>
       <c r="Y15" s="66" t="n">
-        <v>0.3765791557</v>
+        <v>0.3644605445</v>
       </c>
       <c r="Z15" s="77" t="n">
-        <v>485.2599</v>
+        <v>47.38716</v>
       </c>
       <c r="AA15" s="77" t="n">
-        <v>1755.7099</v>
+        <v>175.58716</v>
       </c>
       <c r="AB15" s="78" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="62">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD15" s="79" t="inlineStr">
@@ -30968,7 +30895,7 @@
     </row>
     <row r="16">
       <c r="A16" s="70" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B16" s="71" t="inlineStr">
         <is>
@@ -30981,13 +30908,13 @@
         </is>
       </c>
       <c r="D16" s="72" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="62" t="n">
-        <v>130.295</v>
+        <v>127.045</v>
       </c>
       <c r="F16" s="62" t="n">
-        <v>262.45</v>
+        <v>1279.55</v>
       </c>
       <c r="G16" s="72" t="inlineStr">
         <is>
@@ -30995,10 +30922,10 @@
         </is>
       </c>
       <c r="H16" s="72" t="n">
-        <v>0.26</v>
+        <v>1.27</v>
       </c>
       <c r="I16" s="72" t="n">
-        <v>1.59</v>
+        <v>7.78</v>
       </c>
       <c r="J16" s="62">
         <f>Index!$C$2</f>
@@ -31006,41 +30933,41 @@
       </c>
       <c r="K16" s="62" t="n"/>
       <c r="L16" s="62">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (J14*D14)-(E14*D14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (J13*D13)-(E13*D13), "")</f>
         <v/>
       </c>
       <c r="M16" s="73">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), J14*D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
         <v/>
       </c>
       <c r="N16" s="74">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O16" s="62" t="n"/>
       <c r="P16" s="62">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (J14*D14)-(E14*D14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (J13*D13)-(E13*D13), "")</f>
         <v/>
       </c>
       <c r="Q16" s="75">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), J14*D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), J13*D13, "")</f>
         <v/>
       </c>
       <c r="R16" s="75">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S16" s="76" t="n"/>
       <c r="T16" s="76">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (J14*D14)-(E14*D14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (J13*D13)-(E13*D13), "")</f>
         <v/>
       </c>
       <c r="U16" s="76">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), J14*D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), J13*D13, "")</f>
         <v/>
       </c>
       <c r="V16" s="76">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W16" s="61" t="n">
@@ -31050,19 +30977,19 @@
         <v>45309</v>
       </c>
       <c r="Y16" s="66" t="n">
-        <v>0.3429548997</v>
+        <v>0.3765791557</v>
       </c>
       <c r="Z16" s="77" t="n">
-        <v>90.64297999999999</v>
+        <v>485.2599</v>
       </c>
       <c r="AA16" s="77" t="n">
-        <v>351.23298</v>
+        <v>1755.7099</v>
       </c>
       <c r="AB16" s="78" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="62">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD16" s="79" t="inlineStr">
@@ -31086,13 +31013,13 @@
         </is>
       </c>
       <c r="D17" s="72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="62" t="n">
-        <v>130.2975</v>
+        <v>130.295</v>
       </c>
       <c r="F17" s="62" t="n">
-        <v>1049.78</v>
+        <v>262.45</v>
       </c>
       <c r="G17" s="72" t="inlineStr">
         <is>
@@ -31100,10 +31027,10 @@
         </is>
       </c>
       <c r="H17" s="72" t="n">
-        <v>1.04</v>
+        <v>0.26</v>
       </c>
       <c r="I17" s="72" t="n">
-        <v>6.34</v>
+        <v>1.59</v>
       </c>
       <c r="J17" s="62">
         <f>Index!$C$2</f>
@@ -31111,41 +31038,41 @@
       </c>
       <c r="K17" s="62" t="n"/>
       <c r="L17" s="62">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (J15*D15)-(E15*D15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (J14*D14)-(E14*D14), "")</f>
         <v/>
       </c>
       <c r="M17" s="73">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), J15*D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), J14*D14, "")</f>
         <v/>
       </c>
       <c r="N17" s="74">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O17" s="62" t="n"/>
       <c r="P17" s="62">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (J15*D15)-(E15*D15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (J14*D14)-(E14*D14), "")</f>
         <v/>
       </c>
       <c r="Q17" s="75">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), J15*D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), J14*D14, "")</f>
         <v/>
       </c>
       <c r="R17" s="75">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S17" s="76" t="n"/>
       <c r="T17" s="76">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (J15*D15)-(E15*D15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (J14*D14)-(E14*D14), "")</f>
         <v/>
       </c>
       <c r="U17" s="76">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), J15*D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), J14*D14, "")</f>
         <v/>
       </c>
       <c r="V17" s="76">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W17" s="61" t="n">
@@ -31155,19 +31082,19 @@
         <v>45309</v>
       </c>
       <c r="Y17" s="66" t="n">
-        <v>0.3429492224</v>
+        <v>0.3429548997</v>
       </c>
       <c r="Z17" s="77" t="n">
-        <v>362.5522</v>
+        <v>90.64297999999999</v>
       </c>
       <c r="AA17" s="77" t="n">
-        <v>1404.9322</v>
+        <v>351.23298</v>
       </c>
       <c r="AB17" s="78" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="62">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD17" s="79" t="inlineStr">
@@ -31178,7 +31105,7 @@
     </row>
     <row r="18">
       <c r="A18" s="70" t="n">
-        <v>45162</v>
+        <v>45180</v>
       </c>
       <c r="B18" s="71" t="inlineStr">
         <is>
@@ -31191,13 +31118,13 @@
         </is>
       </c>
       <c r="D18" s="72" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="62" t="n">
-        <v>138.753333</v>
+        <v>130.2975</v>
       </c>
       <c r="F18" s="62" t="n">
-        <v>838.36</v>
+        <v>1049.78</v>
       </c>
       <c r="G18" s="72" t="inlineStr">
         <is>
@@ -31205,10 +31132,10 @@
         </is>
       </c>
       <c r="H18" s="72" t="n">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="I18" s="72" t="n">
-        <v>5.04</v>
+        <v>6.34</v>
       </c>
       <c r="J18" s="62">
         <f>Index!$C$2</f>
@@ -31216,41 +31143,41 @@
       </c>
       <c r="K18" s="62" t="n"/>
       <c r="L18" s="62">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (J16*D16)-(E16*D16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (J15*D15)-(E15*D15), "")</f>
         <v/>
       </c>
       <c r="M18" s="73">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), J16*D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), J15*D15, "")</f>
         <v/>
       </c>
       <c r="N18" s="74">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O18" s="62" t="n"/>
       <c r="P18" s="62">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (J16*D16)-(E16*D16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (J15*D15)-(E15*D15), "")</f>
         <v/>
       </c>
       <c r="Q18" s="75">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), J16*D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), J15*D15, "")</f>
         <v/>
       </c>
       <c r="R18" s="75">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S18" s="76" t="n"/>
       <c r="T18" s="76">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (J16*D16)-(E16*D16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (J15*D15)-(E15*D15), "")</f>
         <v/>
       </c>
       <c r="U18" s="76">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), J16*D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), J15*D15, "")</f>
         <v/>
       </c>
       <c r="V18" s="76">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W18" s="61" t="n">
@@ -31260,19 +31187,19 @@
         <v>45309</v>
       </c>
       <c r="Y18" s="66" t="n">
-        <v>0.2628336713</v>
+        <v>0.3429492224</v>
       </c>
       <c r="Z18" s="77" t="n">
-        <v>221.889442</v>
+        <v>362.5522</v>
       </c>
       <c r="AA18" s="77" t="n">
-        <v>1054.40944</v>
+        <v>1404.9322</v>
       </c>
       <c r="AB18" s="78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC18" s="62">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD18" s="79" t="inlineStr">
@@ -31296,13 +31223,13 @@
         </is>
       </c>
       <c r="D19" s="72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="62" t="n">
-        <v>138.8</v>
+        <v>138.753333</v>
       </c>
       <c r="F19" s="62" t="n">
-        <v>559.12</v>
+        <v>838.36</v>
       </c>
       <c r="G19" s="72" t="inlineStr">
         <is>
@@ -31310,10 +31237,10 @@
         </is>
       </c>
       <c r="H19" s="72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I19" s="72" t="n">
-        <v>3.36</v>
+        <v>5.04</v>
       </c>
       <c r="J19" s="62">
         <f>Index!$C$2</f>
@@ -31321,41 +31248,41 @@
       </c>
       <c r="K19" s="62" t="n"/>
       <c r="L19" s="62">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (J17*D17)-(E17*D17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (J16*D16)-(E16*D16), "")</f>
         <v/>
       </c>
       <c r="M19" s="73">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), J17*D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), J16*D16, "")</f>
         <v/>
       </c>
       <c r="N19" s="74">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O19" s="62" t="n"/>
       <c r="P19" s="62">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (J17*D17)-(E17*D17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (J16*D16)-(E16*D16), "")</f>
         <v/>
       </c>
       <c r="Q19" s="75">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), J17*D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), J16*D16, "")</f>
         <v/>
       </c>
       <c r="R19" s="75">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S19" s="76" t="n"/>
       <c r="T19" s="76">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (J17*D17)-(E17*D17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (J16*D16)-(E16*D16), "")</f>
         <v/>
       </c>
       <c r="U19" s="76">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), J17*D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), J16*D16, "")</f>
         <v/>
       </c>
       <c r="V19" s="76">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W19" s="61" t="n">
@@ -31365,19 +31292,19 @@
         <v>45309</v>
       </c>
       <c r="Y19" s="66" t="n">
-        <v>0.2624009662</v>
+        <v>0.2628336713</v>
       </c>
       <c r="Z19" s="77" t="n">
-        <v>147.74224</v>
+        <v>221.889442</v>
       </c>
       <c r="AA19" s="77" t="n">
-        <v>702.94224</v>
+        <v>1054.40944</v>
       </c>
       <c r="AB19" s="78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC19" s="62">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD19" s="79" t="inlineStr">
@@ -31388,7 +31315,7 @@
     </row>
     <row r="20">
       <c r="A20" s="70" t="n">
-        <v>45131</v>
+        <v>45162</v>
       </c>
       <c r="B20" s="71" t="inlineStr">
         <is>
@@ -31401,13 +31328,13 @@
         </is>
       </c>
       <c r="D20" s="72" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E20" s="62" t="n">
-        <v>125</v>
+        <v>138.8</v>
       </c>
       <c r="F20" s="62" t="n">
-        <v>2517.8</v>
+        <v>559.12</v>
       </c>
       <c r="G20" s="72" t="inlineStr">
         <is>
@@ -31415,10 +31342,10 @@
         </is>
       </c>
       <c r="H20" s="72" t="n">
-        <v>2.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I20" s="72" t="n">
-        <v>15.31</v>
+        <v>3.36</v>
       </c>
       <c r="J20" s="62">
         <f>Index!$C$2</f>
@@ -31426,41 +31353,41 @@
       </c>
       <c r="K20" s="62" t="n"/>
       <c r="L20" s="62">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (J18*D18)-(E18*D18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (J17*D17)-(E17*D17), "")</f>
         <v/>
       </c>
       <c r="M20" s="73">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), J18*D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), J17*D17, "")</f>
         <v/>
       </c>
       <c r="N20" s="74">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O20" s="62" t="n"/>
       <c r="P20" s="62">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (J18*D18)-(E18*D18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (J17*D17)-(E17*D17), "")</f>
         <v/>
       </c>
       <c r="Q20" s="75">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), J18*D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), J17*D17, "")</f>
         <v/>
       </c>
       <c r="R20" s="75">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S20" s="76" t="n"/>
       <c r="T20" s="76">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (J17*D17)-(E17*D17), "")</f>
         <v/>
       </c>
       <c r="U20" s="76">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), J18*D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), J17*D17, "")</f>
         <v/>
       </c>
       <c r="V20" s="76">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W20" s="61" t="n">
@@ -31470,19 +31397,19 @@
         <v>45309</v>
       </c>
       <c r="Y20" s="66" t="n">
-        <v>0.3986619341</v>
+        <v>0.2624009662</v>
       </c>
       <c r="Z20" s="77" t="n">
-        <v>1010.8472</v>
+        <v>147.74224</v>
       </c>
       <c r="AA20" s="77" t="n">
-        <v>3510.8472</v>
+        <v>702.94224</v>
       </c>
       <c r="AB20" s="78" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AC20" s="62">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD20" s="79" t="inlineStr">
@@ -31493,7 +31420,7 @@
     </row>
     <row r="21">
       <c r="A21" s="70" t="n">
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="B21" s="71" t="inlineStr">
         <is>
@@ -31506,13 +31433,13 @@
         </is>
       </c>
       <c r="D21" s="72" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E21" s="62" t="n">
-        <v>131.45</v>
+        <v>125</v>
       </c>
       <c r="F21" s="62" t="n">
-        <v>132.38</v>
+        <v>2517.8</v>
       </c>
       <c r="G21" s="72" t="inlineStr">
         <is>
@@ -31520,10 +31447,10 @@
         </is>
       </c>
       <c r="H21" s="72" t="n">
-        <v>0.13</v>
+        <v>2.49</v>
       </c>
       <c r="I21" s="72" t="n">
-        <v>0.8</v>
+        <v>15.31</v>
       </c>
       <c r="J21" s="62">
         <f>Index!$C$2</f>
@@ -31531,63 +31458,63 @@
       </c>
       <c r="K21" s="62" t="n"/>
       <c r="L21" s="62">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (J19*D19)-(E19*D19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (J18*D18)-(E18*D18), "")</f>
         <v/>
       </c>
       <c r="M21" s="73">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), J19*D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), J18*D18, "")</f>
         <v/>
       </c>
       <c r="N21" s="74">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O21" s="62" t="n"/>
       <c r="P21" s="62">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (J19*D19)-(E19*D19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (J18*D18)-(E18*D18), "")</f>
         <v/>
       </c>
       <c r="Q21" s="75">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), J19*D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), J18*D18, "")</f>
         <v/>
       </c>
       <c r="R21" s="75">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S21" s="76" t="n"/>
       <c r="T21" s="76">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18), "")</f>
         <v/>
       </c>
       <c r="U21" s="76">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), J19*D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), J18*D18, "")</f>
         <v/>
       </c>
       <c r="V21" s="76">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W21" s="61" t="n">
-        <v>161.37</v>
+        <v>176.26</v>
       </c>
       <c r="X21" s="58" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
       <c r="Y21" s="66" t="n">
-        <v>0.221297127</v>
+        <v>0.3986619341</v>
       </c>
       <c r="Z21" s="77" t="n">
-        <v>29.50112</v>
+        <v>1010.8472</v>
       </c>
       <c r="AA21" s="77" t="n">
-        <v>160.95112</v>
+        <v>3510.8472</v>
       </c>
       <c r="AB21" s="78" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC21" s="62">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD21" s="79" t="inlineStr">
@@ -31611,13 +31538,13 @@
         </is>
       </c>
       <c r="D22" s="72" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="E22" s="62" t="n">
-        <v>131.495632</v>
+        <v>131.45</v>
       </c>
       <c r="F22" s="62" t="n">
-        <v>11521.79</v>
+        <v>132.38</v>
       </c>
       <c r="G22" s="72" t="inlineStr">
         <is>
@@ -31625,10 +31552,10 @@
         </is>
       </c>
       <c r="H22" s="72" t="n">
-        <v>11.31</v>
+        <v>0.13</v>
       </c>
       <c r="I22" s="72" t="n">
-        <v>69.98</v>
+        <v>0.8</v>
       </c>
       <c r="J22" s="62">
         <f>Index!$C$2</f>
@@ -31636,41 +31563,41 @@
       </c>
       <c r="K22" s="62" t="n"/>
       <c r="L22" s="62">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (J19*D19)-(E19*D19), "")</f>
         <v/>
       </c>
       <c r="M22" s="73">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), J19*D19, "")</f>
         <v/>
       </c>
       <c r="N22" s="74">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O22" s="62" t="n"/>
       <c r="P22" s="62">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (J19*D19)-(E19*D19), "")</f>
         <v/>
       </c>
       <c r="Q22" s="75">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), J19*D19, "")</f>
         <v/>
       </c>
       <c r="R22" s="75">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S22" s="76" t="n"/>
       <c r="T22" s="76">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19), "")</f>
         <v/>
       </c>
       <c r="U22" s="76">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), J19*D19, "")</f>
         <v/>
       </c>
       <c r="V22" s="76">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W22" s="61" t="n">
@@ -31680,19 +31607,19 @@
         <v>45301</v>
       </c>
       <c r="Y22" s="66" t="n">
-        <v>0.2208623086</v>
+        <v>0.221297127</v>
       </c>
       <c r="Z22" s="77" t="n">
-        <v>2562.683036</v>
+        <v>29.50112</v>
       </c>
       <c r="AA22" s="77" t="n">
-        <v>14002.80302</v>
+        <v>160.95112</v>
       </c>
       <c r="AB22" s="78" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="62">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD22" s="79" t="inlineStr">
@@ -31716,13 +31643,13 @@
         </is>
       </c>
       <c r="D23" s="72" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E23" s="62" t="n">
-        <v>131.445714</v>
+        <v>131.495632</v>
       </c>
       <c r="F23" s="62" t="n">
-        <v>926.6900000000001</v>
+        <v>11521.79</v>
       </c>
       <c r="G23" s="72" t="inlineStr">
         <is>
@@ -31730,10 +31657,10 @@
         </is>
       </c>
       <c r="H23" s="72" t="n">
-        <v>0.91</v>
+        <v>11.31</v>
       </c>
       <c r="I23" s="72" t="n">
-        <v>5.63</v>
+        <v>69.98</v>
       </c>
       <c r="J23" s="62">
         <f>Index!$C$2</f>
@@ -31741,41 +31668,41 @@
       </c>
       <c r="K23" s="62" t="n"/>
       <c r="L23" s="62">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (J21*D21)-(E21*D21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="M23" s="73">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
         <v/>
       </c>
       <c r="N23" s="74">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O23" s="62" t="n"/>
       <c r="P23" s="62">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (J21*D21)-(E21*D21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="Q23" s="75">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="R23" s="75">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S23" s="76" t="n"/>
       <c r="T23" s="76">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="U23" s="76">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="V23" s="76">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W23" s="61" t="n">
@@ -31785,19 +31712,19 @@
         <v>45301</v>
       </c>
       <c r="Y23" s="66" t="n">
-        <v>0.2213145977</v>
+        <v>0.2208623086</v>
       </c>
       <c r="Z23" s="77" t="n">
-        <v>206.537422</v>
+        <v>2562.683036</v>
       </c>
       <c r="AA23" s="77" t="n">
-        <v>1126.65742</v>
+        <v>14002.80302</v>
       </c>
       <c r="AB23" s="78" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="AC23" s="62">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD23" s="79" t="inlineStr">
@@ -31821,13 +31748,13 @@
         </is>
       </c>
       <c r="D24" s="72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="62" t="n">
-        <v>131.496</v>
+        <v>131.445714</v>
       </c>
       <c r="F24" s="62" t="n">
-        <v>662.17</v>
+        <v>926.6900000000001</v>
       </c>
       <c r="G24" s="72" t="inlineStr">
         <is>
@@ -31835,10 +31762,10 @@
         </is>
       </c>
       <c r="H24" s="72" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="I24" s="72" t="n">
-        <v>4.02</v>
+        <v>5.63</v>
       </c>
       <c r="J24" s="62">
         <f>Index!$C$2</f>
@@ -31846,41 +31773,41 @@
       </c>
       <c r="K24" s="62" t="n"/>
       <c r="L24" s="62">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (J22*D22)-(E22*D22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (J21*D21)-(E21*D21), "")</f>
         <v/>
       </c>
       <c r="M24" s="73">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
         <v/>
       </c>
       <c r="N24" s="74">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O24" s="62" t="n"/>
       <c r="P24" s="62">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (J22*D22)-(E22*D22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (J21*D21)-(E21*D21), "")</f>
         <v/>
       </c>
       <c r="Q24" s="75">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), J21*D21, "")</f>
         <v/>
       </c>
       <c r="R24" s="75">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S24" s="76" t="n"/>
       <c r="T24" s="76">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (J21*D21)-(E21*D21), "")</f>
         <v/>
       </c>
       <c r="U24" s="76">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), J21*D21, "")</f>
         <v/>
       </c>
       <c r="V24" s="76">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W24" s="61" t="n">
@@ -31890,19 +31817,19 @@
         <v>45301</v>
       </c>
       <c r="Y24" s="66" t="n">
-        <v>0.2208608062</v>
+        <v>0.2213145977</v>
       </c>
       <c r="Z24" s="77" t="n">
-        <v>147.27882</v>
+        <v>206.537422</v>
       </c>
       <c r="AA24" s="77" t="n">
-        <v>804.75882</v>
+        <v>1126.65742</v>
       </c>
       <c r="AB24" s="78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC24" s="62">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD24" s="79" t="inlineStr">
@@ -31912,20 +31839,109 @@
       </c>
     </row>
     <row r="25">
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="80" t="n"/>
-      <c r="G25" s="81" t="n"/>
-      <c r="J25" s="80" t="n"/>
-      <c r="K25" s="80" t="n"/>
-      <c r="L25" s="80" t="n"/>
-      <c r="M25" s="26" t="n"/>
-      <c r="W25" s="80" t="n"/>
-      <c r="X25" s="80" t="n"/>
-      <c r="Y25" s="80" t="n"/>
-      <c r="Z25" s="80" t="n"/>
-      <c r="AA25" s="80" t="n"/>
-      <c r="AB25" s="80" t="n"/>
-      <c r="AC25" s="80" t="n"/>
+      <c r="A25" s="70" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B25" s="71" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C25" s="71" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D25" s="72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" s="62" t="n">
+        <v>131.496</v>
+      </c>
+      <c r="F25" s="62" t="n">
+        <v>662.17</v>
+      </c>
+      <c r="G25" s="72" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H25" s="72" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I25" s="72" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="J25" s="62">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K25" s="62" t="n"/>
+      <c r="L25" s="62">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (J22*D22)-(E22*D22), "")</f>
+        <v/>
+      </c>
+      <c r="M25" s="73">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <v/>
+      </c>
+      <c r="N25" s="74">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O25" s="62" t="n"/>
+      <c r="P25" s="62">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (J22*D22)-(E22*D22), "")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="75">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), J22*D22, "")</f>
+        <v/>
+      </c>
+      <c r="R25" s="75">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S25" s="76" t="n"/>
+      <c r="T25" s="76">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (J22*D22)-(E22*D22), "")</f>
+        <v/>
+      </c>
+      <c r="U25" s="76">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), J22*D22, "")</f>
+        <v/>
+      </c>
+      <c r="V25" s="76">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W25" s="61" t="n">
+        <v>161.37</v>
+      </c>
+      <c r="X25" s="58" t="n">
+        <v>45301</v>
+      </c>
+      <c r="Y25" s="66" t="n">
+        <v>0.2208608062</v>
+      </c>
+      <c r="Z25" s="77" t="n">
+        <v>147.27882</v>
+      </c>
+      <c r="AA25" s="77" t="n">
+        <v>804.75882</v>
+      </c>
+      <c r="AB25" s="78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="62">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD25" s="79" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="E26" s="80" t="n"/>
@@ -47390,6 +47406,7 @@
       <c r="J992" s="80" t="n"/>
       <c r="K992" s="80" t="n"/>
       <c r="L992" s="80" t="n"/>
+      <c r="M992" s="26" t="n"/>
       <c r="W992" s="80" t="n"/>
       <c r="X992" s="80" t="n"/>
       <c r="Y992" s="80" t="n"/>
@@ -47637,6 +47654,21 @@
       <c r="AA1008" s="80" t="n"/>
       <c r="AB1008" s="80" t="n"/>
       <c r="AC1008" s="80" t="n"/>
+    </row>
+    <row r="1009">
+      <c r="E1009" s="80" t="n"/>
+      <c r="F1009" s="80" t="n"/>
+      <c r="G1009" s="81" t="n"/>
+      <c r="J1009" s="80" t="n"/>
+      <c r="K1009" s="80" t="n"/>
+      <c r="L1009" s="80" t="n"/>
+      <c r="W1009" s="80" t="n"/>
+      <c r="X1009" s="80" t="n"/>
+      <c r="Y1009" s="80" t="n"/>
+      <c r="Z1009" s="80" t="n"/>
+      <c r="AA1009" s="80" t="n"/>
+      <c r="AB1009" s="80" t="n"/>
+      <c r="AC1009" s="80" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$83"/>
